--- a/projects/office_calibration_rgenoud.xlsx
+++ b/projects/office_calibration_rgenoud.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13170" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$154</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2672" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2687" uniqueCount="864">
   <si>
     <t>type</t>
   </si>
@@ -2609,6 +2609,30 @@
   </si>
   <si>
     <t>Gas Consumption Period 11 Modeled</t>
+  </si>
+  <si>
+    <t>Add Service Water Heating</t>
+  </si>
+  <si>
+    <t>AddServiceWaterHeating</t>
+  </si>
+  <si>
+    <t>Water Heater Fuel Type</t>
+  </si>
+  <si>
+    <t>water_heater_fuel_type</t>
+  </si>
+  <si>
+    <t>NaturalGas</t>
+  </si>
+  <si>
+    <t>Gallons Hot Water per Occupant per Day</t>
+  </si>
+  <si>
+    <t>hot_water_per_occ_per_day_gal</t>
+  </si>
+  <si>
+    <t>gal</t>
   </si>
 </sst>
 </file>
@@ -6869,17 +6893,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="81.6640625" customWidth="1"/>
+    <col min="1" max="1" width="81.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.8">
+    <row r="1" spans="1:1" ht="45">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28.8">
+    <row r="2" spans="1:1" ht="30">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6899,18 +6923,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.6640625" style="1"/>
+    <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="61.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6942,7 +6966,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8">
+    <row r="4" spans="1:5" ht="30">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6953,7 +6977,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72">
+    <row r="5" spans="1:5" ht="75">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6964,7 +6988,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.2" customHeight="1">
+    <row r="6" spans="1:5" ht="46.15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
@@ -6975,7 +6999,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8">
+    <row r="7" spans="1:5" ht="30">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6994,7 +7018,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8">
+    <row r="8" spans="1:5" ht="30">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -7079,7 +7103,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8">
+    <row r="16" spans="1:5" ht="30">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -7112,7 +7136,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="60">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -7137,7 +7161,7 @@
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="60">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -7296,7 +7320,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="45">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
@@ -7317,7 +7341,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="30">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7346,7 +7370,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="60">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7400,39 +7424,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y224"/>
+  <dimension ref="A1:Y227"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.6640625" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="31"/>
-    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="31" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.7109375" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="31"/>
+    <col min="16" max="16" width="11.42578125" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
-    <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.44140625" style="31"/>
-    <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.44140625" style="31"/>
+    <col min="18" max="18" width="27.7109375" style="31" customWidth="1"/>
+    <col min="19" max="19" width="46.140625" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.42578125" style="31"/>
+    <col min="23" max="23" width="13.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18">
+    <row r="1" spans="1:25" ht="18.75">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7467,7 +7491,7 @@
       <c r="X1" s="53"/>
       <c r="Y1" s="53"/>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.6">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.75">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7483,7 +7507,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="63">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7750,7 +7774,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" ht="17.399999999999999">
+    <row r="14" spans="1:25" ht="18">
       <c r="A14" s="30"/>
       <c r="B14" s="30" t="s">
         <v>21</v>
@@ -8794,161 +8818,165 @@
         <v>1</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>704</v>
+        <v>856</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>703</v>
+        <v>857</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>703</v>
+        <v>857</v>
       </c>
       <c r="E59" s="38" t="s">
-        <v>233</v>
+        <v>68</v>
       </c>
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
     </row>
-    <row r="60" spans="1:17" s="49" customFormat="1">
-      <c r="A60" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B60" s="49" t="s">
-        <v>771</v>
-      </c>
-      <c r="C60" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="D60" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="E60" s="49" t="s">
-        <v>68</v>
-      </c>
+    <row r="60" spans="1:17">
+      <c r="B60" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>858</v>
+      </c>
+      <c r="E60" s="31" t="s">
+        <v>859</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="H60" s="31" t="s">
+        <v>860</v>
+      </c>
+      <c r="I60" s="31"/>
     </row>
     <row r="61" spans="1:17" s="43" customFormat="1">
       <c r="B61" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D61" s="43" t="s">
-        <v>772</v>
+        <v>861</v>
       </c>
       <c r="E61" s="43" t="s">
-        <v>77</v>
+        <v>862</v>
       </c>
       <c r="F61" s="43" t="s">
-        <v>64</v>
+        <v>619</v>
+      </c>
+      <c r="G61" s="43" t="s">
+        <v>863</v>
       </c>
       <c r="H61" s="43">
-        <v>0.4</v>
-      </c>
-      <c r="J61" s="43">
-        <v>0.05</v>
-      </c>
-      <c r="K61" s="43">
-        <v>0.8</v>
-      </c>
-      <c r="L61" s="43">
-        <v>0.4</v>
+        <v>1</v>
+      </c>
+      <c r="J61" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="K61" s="45">
+        <v>3</v>
+      </c>
+      <c r="L61" s="45">
+        <v>1</v>
       </c>
       <c r="M61" s="43">
-        <f>(K61+J61)/6</f>
-        <v>0.14166666666666669</v>
+        <f>(K61-J61)/6</f>
+        <v>0.45833333333333331</v>
       </c>
       <c r="N61" s="43">
-        <v>0.1</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="P61" s="47"/>
       <c r="Q61" s="43" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="30" customFormat="1">
-      <c r="B62" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="30" t="s">
+    <row r="62" spans="1:17" s="38" customFormat="1">
+      <c r="A62" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>704</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="E62" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+    </row>
+    <row r="63" spans="1:17" s="49" customFormat="1">
+      <c r="A63" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B63" s="49" t="s">
+        <v>771</v>
+      </c>
+      <c r="C63" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D63" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E63" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" s="43" customFormat="1">
+      <c r="B64" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="43" t="s">
+        <v>772</v>
+      </c>
+      <c r="E64" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F64" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H64" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="J64" s="43">
+        <v>0.05</v>
+      </c>
+      <c r="K64" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="L64" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="M64" s="43">
+        <f>(K64+J64)/6</f>
+        <v>0.14166666666666669</v>
+      </c>
+      <c r="N64" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="Q64" s="43" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" s="30" customFormat="1">
+      <c r="B65" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E62" s="30" t="s">
+      <c r="E65" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F62" s="30" t="s">
+      <c r="F65" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H62" s="30">
+      <c r="H65" s="30">
         <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" s="30" customFormat="1">
-      <c r="B63" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E63" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F63" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H63" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="I63" s="30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" s="49" customFormat="1">
-      <c r="A64" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B64" s="49" t="s">
-        <v>774</v>
-      </c>
-      <c r="C64" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="D64" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="E64" s="49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" s="43" customFormat="1">
-      <c r="B65" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" s="43" t="s">
-        <v>775</v>
-      </c>
-      <c r="E65" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="F65" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H65" s="43">
-        <v>0.4</v>
-      </c>
-      <c r="J65" s="43">
-        <v>0.05</v>
-      </c>
-      <c r="K65" s="43">
-        <v>0.8</v>
-      </c>
-      <c r="L65" s="43">
-        <v>0.4</v>
-      </c>
-      <c r="M65" s="43">
-        <f>(K65+J65)/6</f>
-        <v>0.14166666666666669</v>
-      </c>
-      <c r="N65" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="Q65" s="43" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="66" spans="1:17" s="30" customFormat="1">
@@ -8956,89 +8984,89 @@
         <v>21</v>
       </c>
       <c r="D66" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I66" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" s="49" customFormat="1">
+      <c r="A67" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B67" s="49" t="s">
+        <v>774</v>
+      </c>
+      <c r="C67" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E67" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" s="43" customFormat="1">
+      <c r="B68" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="43" t="s">
+        <v>775</v>
+      </c>
+      <c r="E68" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F68" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H68" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="J68" s="43">
+        <v>0.05</v>
+      </c>
+      <c r="K68" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="L68" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="M68" s="43">
+        <f>(K68+J68)/6</f>
+        <v>0.14166666666666669</v>
+      </c>
+      <c r="N68" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="Q68" s="43" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" s="30" customFormat="1">
+      <c r="B69" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E66" s="30" t="s">
+      <c r="E69" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F66" s="30" t="s">
+      <c r="F69" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H66" s="30">
+      <c r="H69" s="30">
         <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" s="30" customFormat="1">
-      <c r="B67" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E67" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F67" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H67" s="30" t="s">
-        <v>669</v>
-      </c>
-      <c r="I67" s="30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" s="49" customFormat="1">
-      <c r="A68" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B68" s="49" t="s">
-        <v>776</v>
-      </c>
-      <c r="C68" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="D68" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="E68" s="49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" s="43" customFormat="1">
-      <c r="B69" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D69" s="43" t="s">
-        <v>777</v>
-      </c>
-      <c r="E69" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="F69" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H69" s="43">
-        <v>0.4</v>
-      </c>
-      <c r="J69" s="43">
-        <v>0.05</v>
-      </c>
-      <c r="K69" s="43">
-        <v>0.8</v>
-      </c>
-      <c r="L69" s="43">
-        <v>0.4</v>
-      </c>
-      <c r="M69" s="43">
-        <f>(K69+J69)/6</f>
-        <v>0.14166666666666669</v>
-      </c>
-      <c r="N69" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="Q69" s="43" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="70" spans="1:17" s="30" customFormat="1">
@@ -9046,53 +9074,72 @@
         <v>21</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F70" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H70" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="I70" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" s="49" customFormat="1">
+      <c r="A71" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B71" s="49" t="s">
+        <v>776</v>
+      </c>
+      <c r="C71" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71" s="49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" s="43" customFormat="1">
+      <c r="B72" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="43" t="s">
+        <v>777</v>
+      </c>
+      <c r="E72" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F72" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H70" s="30">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" s="30" customFormat="1">
-      <c r="B71" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E71" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F71" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H71" s="30" t="s">
-        <v>670</v>
-      </c>
-      <c r="I71" s="30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" s="49" customFormat="1">
-      <c r="A72" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B72" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="D72" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="E72" s="49" t="s">
-        <v>68</v>
+      <c r="H72" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="J72" s="43">
+        <v>0.05</v>
+      </c>
+      <c r="K72" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="L72" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="M72" s="43">
+        <f>(K72+J72)/6</f>
+        <v>0.14166666666666669</v>
+      </c>
+      <c r="N72" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="Q72" s="43" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="73" spans="1:17" s="30" customFormat="1">
@@ -9100,221 +9147,182 @@
         <v>21</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="F73" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H73" s="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" s="30" customFormat="1">
+      <c r="B74" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E74" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F74" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H73" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I73" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="O73" s="31"/>
-    </row>
-    <row r="74" spans="1:17" s="43" customFormat="1">
-      <c r="B74" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D74" s="44" t="s">
-        <v>778</v>
-      </c>
-      <c r="E74" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="F74" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H74" s="43">
-        <v>0</v>
-      </c>
-      <c r="J74" s="45">
-        <v>-100</v>
-      </c>
-      <c r="K74" s="45">
-        <v>100</v>
-      </c>
-      <c r="L74" s="45">
-        <v>0</v>
-      </c>
-      <c r="M74" s="45">
-        <f>(K74-J74)/6</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="N74" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="Q74" s="43" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" s="30" customFormat="1">
-      <c r="B75" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E75" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F75" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H75" s="30">
-        <v>0</v>
-      </c>
-      <c r="O75" s="31"/>
+      <c r="H74" s="30" t="s">
+        <v>670</v>
+      </c>
+      <c r="I74" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" s="49" customFormat="1">
+      <c r="A75" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B75" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="49" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="76" spans="1:17" s="30" customFormat="1">
       <c r="B76" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D76" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F76" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H76" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I76" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="O76" s="31"/>
+    </row>
+    <row r="77" spans="1:17" s="43" customFormat="1">
+      <c r="B77" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="44" t="s">
+        <v>778</v>
+      </c>
+      <c r="E77" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="F77" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H77" s="43">
+        <v>0</v>
+      </c>
+      <c r="J77" s="45">
+        <v>-100</v>
+      </c>
+      <c r="K77" s="45">
+        <v>100</v>
+      </c>
+      <c r="L77" s="45">
+        <v>0</v>
+      </c>
+      <c r="M77" s="45">
+        <f>(K77-J77)/6</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="N77" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q77" s="43" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" s="30" customFormat="1">
+      <c r="B78" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E78" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F78" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H78" s="30">
+        <v>0</v>
+      </c>
+      <c r="O78" s="31"/>
+    </row>
+    <row r="79" spans="1:17" s="30" customFormat="1">
+      <c r="B79" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="E76" s="30" t="s">
+      <c r="E79" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F76" s="30" t="s">
+      <c r="F79" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H76" s="30">
-        <v>0</v>
-      </c>
-      <c r="O76" s="31"/>
-    </row>
-    <row r="77" spans="1:17" s="30" customFormat="1">
-      <c r="B77" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="30" t="s">
+      <c r="H79" s="30">
+        <v>0</v>
+      </c>
+      <c r="O79" s="31"/>
+    </row>
+    <row r="80" spans="1:17" s="30" customFormat="1">
+      <c r="B80" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E77" s="30" t="s">
+      <c r="E80" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F77" s="30" t="s">
+      <c r="F80" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="H77" s="30">
+      <c r="H80" s="30">
         <v>1</v>
       </c>
-      <c r="O77" s="31"/>
-    </row>
-    <row r="78" spans="1:17" s="50" customFormat="1">
-      <c r="A78" s="50" t="b">
+      <c r="O80" s="31"/>
+    </row>
+    <row r="81" spans="1:17" s="50" customFormat="1">
+      <c r="A81" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="B78" s="50" t="s">
+      <c r="B81" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C78" s="50" t="s">
+      <c r="C81" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="D78" s="50" t="s">
+      <c r="D81" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="E78" s="50" t="s">
+      <c r="E81" s="50" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="79" spans="1:17">
-      <c r="A79" s="30"/>
-      <c r="B79" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E79" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F79" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G79" s="30"/>
-      <c r="H79" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I79" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
-      <c r="P79" s="40"/>
-    </row>
-    <row r="80" spans="1:17" s="43" customFormat="1">
-      <c r="B80" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D80" s="43" t="s">
-        <v>779</v>
-      </c>
-      <c r="E80" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="F80" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H80" s="43">
-        <v>0</v>
-      </c>
-      <c r="I80" s="46"/>
-      <c r="J80" s="45">
-        <v>-60</v>
-      </c>
-      <c r="K80" s="45">
-        <v>60</v>
-      </c>
-      <c r="L80" s="45">
-        <v>-1</v>
-      </c>
-      <c r="M80" s="45">
-        <f>(K80-J80)/6</f>
-        <v>20</v>
-      </c>
-      <c r="N80" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="P80" s="47"/>
-      <c r="Q80" s="43" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17">
-      <c r="A81" s="30"/>
-      <c r="B81" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C81" s="30"/>
-      <c r="D81" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="E81" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F81" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G81" s="30"/>
-      <c r="H81" s="30">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
-      <c r="P81" s="40"/>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="30"/>
@@ -9323,17 +9331,20 @@
       </c>
       <c r="C82" s="30"/>
       <c r="D82" s="30" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F82" s="30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G82" s="30"/>
-      <c r="H82" s="30">
-        <v>0</v>
+      <c r="H82" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I82" s="30" t="s">
+        <v>83</v>
       </c>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
@@ -9342,31 +9353,43 @@
       <c r="N82" s="3"/>
       <c r="P82" s="40"/>
     </row>
-    <row r="83" spans="1:17">
-      <c r="A83" s="30"/>
-      <c r="B83" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E83" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F83" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G83" s="30"/>
-      <c r="H83" s="30">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
-      <c r="P83" s="40"/>
+    <row r="83" spans="1:17" s="43" customFormat="1">
+      <c r="B83" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="43" t="s">
+        <v>779</v>
+      </c>
+      <c r="E83" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F83" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H83" s="43">
+        <v>0</v>
+      </c>
+      <c r="I83" s="46"/>
+      <c r="J83" s="45">
+        <v>-60</v>
+      </c>
+      <c r="K83" s="45">
+        <v>60</v>
+      </c>
+      <c r="L83" s="45">
+        <v>-1</v>
+      </c>
+      <c r="M83" s="45">
+        <f>(K83-J83)/6</f>
+        <v>20</v>
+      </c>
+      <c r="N83" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="P83" s="47"/>
+      <c r="Q83" s="43" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="30"/>
@@ -9374,18 +9397,18 @@
         <v>21</v>
       </c>
       <c r="C84" s="30"/>
-      <c r="D84" s="30" t="s">
-        <v>53</v>
+      <c r="D84" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F84" s="30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G84" s="30"/>
-      <c r="H84" s="30" t="b">
-        <v>1</v>
+      <c r="H84" s="30">
+        <v>0</v>
       </c>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
@@ -9401,17 +9424,17 @@
       </c>
       <c r="C85" s="30"/>
       <c r="D85" s="30" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F85" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G85" s="30"/>
       <c r="H85" s="30">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
@@ -9427,13 +9450,13 @@
       </c>
       <c r="C86" s="30"/>
       <c r="D86" s="30" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E86" s="30" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F86" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G86" s="30"/>
       <c r="H86" s="30">
@@ -9453,16 +9476,16 @@
       </c>
       <c r="C87" s="30"/>
       <c r="D87" s="30" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E87" s="30" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F87" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G87" s="30"/>
-      <c r="H87" s="30">
+      <c r="H87" s="30" t="b">
         <v>1</v>
       </c>
       <c r="J87" s="3"/>
@@ -9472,22 +9495,31 @@
       <c r="N87" s="3"/>
       <c r="P87" s="40"/>
     </row>
-    <row r="88" spans="1:17" s="50" customFormat="1">
-      <c r="A88" s="50" t="b">
-        <v>1</v>
-      </c>
-      <c r="B88" s="50" t="s">
-        <v>327</v>
-      </c>
-      <c r="C88" s="50" t="s">
-        <v>328</v>
-      </c>
-      <c r="D88" s="50" t="s">
-        <v>328</v>
-      </c>
-      <c r="E88" s="50" t="s">
-        <v>68</v>
-      </c>
+    <row r="88" spans="1:17">
+      <c r="A88" s="30"/>
+      <c r="B88" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E88" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F88" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30">
+        <v>15</v>
+      </c>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="P88" s="40"/>
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="30"/>
@@ -9496,20 +9528,17 @@
       </c>
       <c r="C89" s="30"/>
       <c r="D89" s="30" t="s">
-        <v>373</v>
+        <v>57</v>
       </c>
       <c r="E89" s="30" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F89" s="30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G89" s="30"/>
-      <c r="H89" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I89" s="30" t="s">
-        <v>83</v>
+      <c r="H89" s="30">
+        <v>0</v>
       </c>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
@@ -9518,186 +9547,184 @@
       <c r="N89" s="3"/>
       <c r="P89" s="40"/>
     </row>
-    <row r="90" spans="1:17" s="43" customFormat="1">
-      <c r="B90" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D90" s="43" t="s">
-        <v>817</v>
-      </c>
-      <c r="E90" s="43" t="s">
-        <v>330</v>
-      </c>
-      <c r="F90" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H90" s="43">
-        <v>0</v>
-      </c>
-      <c r="I90" s="46"/>
-      <c r="J90" s="45">
-        <v>-30</v>
-      </c>
-      <c r="K90" s="45">
-        <v>30</v>
-      </c>
-      <c r="L90" s="45">
-        <v>0</v>
-      </c>
-      <c r="M90" s="45">
-        <f>(K90-J90)/6</f>
-        <v>10</v>
-      </c>
-      <c r="N90" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="Q90" s="43" t="s">
-        <v>773</v>
-      </c>
+    <row r="90" spans="1:17">
+      <c r="A90" s="30"/>
+      <c r="B90" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F90" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30">
+        <v>1</v>
+      </c>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="P90" s="40"/>
     </row>
     <row r="91" spans="1:17" s="50" customFormat="1">
       <c r="A91" s="50" t="b">
         <v>1</v>
       </c>
       <c r="B91" s="50" t="s">
-        <v>818</v>
+        <v>327</v>
       </c>
       <c r="C91" s="50" t="s">
-        <v>819</v>
+        <v>328</v>
       </c>
       <c r="D91" s="50" t="s">
-        <v>819</v>
+        <v>328</v>
       </c>
       <c r="E91" s="50" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="1:17" s="43" customFormat="1">
-      <c r="B92" s="43" t="s">
+    <row r="92" spans="1:17">
+      <c r="A92" s="30"/>
+      <c r="B92" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="E92" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F92" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I92" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="P92" s="40"/>
+    </row>
+    <row r="93" spans="1:17" s="43" customFormat="1">
+      <c r="B93" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D92" s="43" t="s">
+      <c r="D93" s="43" t="s">
+        <v>817</v>
+      </c>
+      <c r="E93" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="F93" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H93" s="43">
+        <v>0</v>
+      </c>
+      <c r="I93" s="46"/>
+      <c r="J93" s="45">
+        <v>-30</v>
+      </c>
+      <c r="K93" s="45">
+        <v>30</v>
+      </c>
+      <c r="L93" s="45">
+        <v>0</v>
+      </c>
+      <c r="M93" s="45">
+        <f>(K93-J93)/6</f>
+        <v>10</v>
+      </c>
+      <c r="N93" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q93" s="43" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" s="50" customFormat="1">
+      <c r="A94" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="B94" s="50" t="s">
+        <v>818</v>
+      </c>
+      <c r="C94" s="50" t="s">
+        <v>819</v>
+      </c>
+      <c r="D94" s="50" t="s">
+        <v>819</v>
+      </c>
+      <c r="E94" s="50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" s="43" customFormat="1">
+      <c r="B95" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" s="43" t="s">
         <v>820</v>
       </c>
-      <c r="E92" s="43" t="s">
+      <c r="E95" s="43" t="s">
         <v>258</v>
       </c>
-      <c r="F92" s="43" t="s">
+      <c r="F95" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="H92" s="43">
-        <v>0</v>
-      </c>
-      <c r="I92" s="46"/>
-      <c r="J92" s="45">
+      <c r="H95" s="43">
+        <v>0</v>
+      </c>
+      <c r="I95" s="46"/>
+      <c r="J95" s="45">
         <v>-50</v>
       </c>
-      <c r="K92" s="45">
+      <c r="K95" s="45">
         <v>100</v>
       </c>
-      <c r="L92" s="45">
-        <v>0</v>
-      </c>
-      <c r="M92" s="45">
-        <f>(K92-J92)/6</f>
+      <c r="L95" s="45">
+        <v>0</v>
+      </c>
+      <c r="M95" s="45">
+        <f>(K95-J95)/6</f>
         <v>25</v>
       </c>
-      <c r="N92" s="45">
+      <c r="N95" s="45">
         <v>2.5</v>
       </c>
-      <c r="Q92" s="43" t="s">
+      <c r="Q95" s="43" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="93" spans="1:17" s="50" customFormat="1">
-      <c r="A93" s="50" t="b">
+    <row r="96" spans="1:17" s="50" customFormat="1">
+      <c r="A96" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="B93" s="50" t="s">
+      <c r="B96" s="50" t="s">
         <v>821</v>
       </c>
-      <c r="C93" s="50" t="s">
+      <c r="C96" s="50" t="s">
         <v>822</v>
       </c>
-      <c r="D93" s="50" t="s">
+      <c r="D96" s="50" t="s">
         <v>822</v>
       </c>
-      <c r="E93" s="50" t="s">
+      <c r="E96" s="50" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" s="43" customFormat="1">
-      <c r="B94" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D94" s="43" t="s">
-        <v>823</v>
-      </c>
-      <c r="E94" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="F94" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H94" s="43">
-        <v>0</v>
-      </c>
-      <c r="I94" s="46"/>
-      <c r="J94" s="45">
-        <v>-50</v>
-      </c>
-      <c r="K94" s="45">
-        <v>100</v>
-      </c>
-      <c r="L94" s="45">
-        <v>0</v>
-      </c>
-      <c r="M94" s="45">
-        <f>(K94-J94)/6</f>
-        <v>25</v>
-      </c>
-      <c r="N94" s="45">
-        <v>2.5</v>
-      </c>
-      <c r="Q94" s="43" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" s="50" customFormat="1">
-      <c r="A95" s="50" t="b">
-        <v>1</v>
-      </c>
-      <c r="B95" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="C95" s="50" t="s">
-        <v>286</v>
-      </c>
-      <c r="D95" s="50" t="s">
-        <v>286</v>
-      </c>
-      <c r="E95" s="50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" s="30" customFormat="1">
-      <c r="B96" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D96" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="E96" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F96" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H96" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I96" s="30" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:17" s="43" customFormat="1">
@@ -9705,33 +9732,30 @@
         <v>22</v>
       </c>
       <c r="D97" s="43" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E97" s="43" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="F97" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G97" s="43" t="s">
-        <v>825</v>
-      </c>
       <c r="H97" s="43">
         <v>0</v>
       </c>
       <c r="I97" s="46"/>
       <c r="J97" s="45">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="K97" s="45">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L97" s="45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M97" s="45">
         <f>(K97-J97)/6</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N97" s="45">
         <v>2.5</v>
@@ -9740,24 +9764,21 @@
         <v>773</v>
       </c>
     </row>
-    <row r="98" spans="1:17" s="30" customFormat="1">
-      <c r="B98" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D98" s="30" t="s">
-        <v>826</v>
-      </c>
-      <c r="E98" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F98" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G98" s="30" t="s">
-        <v>825</v>
-      </c>
-      <c r="H98" s="30">
-        <v>0</v>
+    <row r="98" spans="1:17" s="50" customFormat="1">
+      <c r="A98" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="B98" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="C98" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="D98" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="E98" s="50" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:17" s="30" customFormat="1">
@@ -9765,39 +9786,59 @@
         <v>21</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>827</v>
+        <v>373</v>
       </c>
       <c r="E99" s="30" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F99" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H99" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I99" s="30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" s="43" customFormat="1">
+      <c r="B100" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="43" t="s">
+        <v>824</v>
+      </c>
+      <c r="E100" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="F100" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G99" s="30" t="s">
+      <c r="G100" s="43" t="s">
         <v>825</v>
       </c>
-      <c r="H99" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" s="30" customFormat="1">
-      <c r="B100" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D100" s="30" t="s">
-        <v>828</v>
-      </c>
-      <c r="E100" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F100" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G100" s="30" t="s">
-        <v>829</v>
-      </c>
-      <c r="H100" s="30">
-        <v>0</v>
+      <c r="H100" s="43">
+        <v>0</v>
+      </c>
+      <c r="I100" s="46"/>
+      <c r="J100" s="45">
+        <v>-40</v>
+      </c>
+      <c r="K100" s="45">
+        <v>80</v>
+      </c>
+      <c r="L100" s="45">
+        <v>-1</v>
+      </c>
+      <c r="M100" s="45">
+        <f>(K100-J100)/6</f>
+        <v>20</v>
+      </c>
+      <c r="N100" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q100" s="43" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="101" spans="1:17" s="30" customFormat="1">
@@ -9805,15 +9846,18 @@
         <v>21</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="E101" s="30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F101" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H101" s="30" t="b">
+        <v>64</v>
+      </c>
+      <c r="G101" s="30" t="s">
+        <v>825</v>
+      </c>
+      <c r="H101" s="30">
         <v>0</v>
       </c>
     </row>
@@ -9822,19 +9866,19 @@
         <v>21</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="E102" s="30" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F102" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G102" s="30" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="H102" s="30">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:17" s="30" customFormat="1">
@@ -9842,16 +9886,16 @@
         <v>21</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="E103" s="30" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F103" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G103" s="30" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="H103" s="30">
         <v>0</v>
@@ -9862,153 +9906,198 @@
         <v>21</v>
       </c>
       <c r="D104" s="30" t="s">
+        <v>830</v>
+      </c>
+      <c r="E104" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F104" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H104" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" s="30" customFormat="1">
+      <c r="B105" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="E105" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F105" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G105" s="30" t="s">
+        <v>829</v>
+      </c>
+      <c r="H105" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" s="30" customFormat="1">
+      <c r="B106" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" s="30" t="s">
+        <v>832</v>
+      </c>
+      <c r="E106" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F106" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G106" s="30" t="s">
+        <v>825</v>
+      </c>
+      <c r="H106" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" s="30" customFormat="1">
+      <c r="B107" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D107" s="30" t="s">
         <v>833</v>
       </c>
-      <c r="E104" s="30" t="s">
+      <c r="E107" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F104" s="30" t="s">
+      <c r="F107" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G104" s="30" t="s">
+      <c r="G107" s="30" t="s">
         <v>829</v>
       </c>
-      <c r="H104" s="30">
+      <c r="H107" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:17" s="38" customFormat="1">
-      <c r="A105" s="38" t="b">
+    <row r="108" spans="1:17" s="38" customFormat="1">
+      <c r="A108" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B105" s="38" t="s">
+      <c r="B108" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="C105" s="38" t="s">
+      <c r="C108" s="38" t="s">
         <v>842</v>
       </c>
-      <c r="D105" s="38" t="s">
+      <c r="D108" s="38" t="s">
         <v>842</v>
       </c>
-      <c r="E105" s="38" t="s">
+      <c r="E108" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G105" s="39"/>
-      <c r="H105" s="39"/>
-    </row>
-    <row r="106" spans="1:17" s="43" customFormat="1">
-      <c r="B106" s="43" t="s">
+      <c r="G108" s="39"/>
+      <c r="H108" s="39"/>
+    </row>
+    <row r="109" spans="1:17" s="43" customFormat="1">
+      <c r="B109" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D106" s="43" t="s">
+      <c r="D109" s="43" t="s">
         <v>843</v>
       </c>
-      <c r="E106" s="43" t="s">
+      <c r="E109" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="F106" s="43" t="s">
+      <c r="F109" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G106" s="43" t="s">
+      <c r="G109" s="43" t="s">
         <v>844</v>
       </c>
-      <c r="H106" s="43">
+      <c r="H109" s="43">
         <v>1</v>
       </c>
-      <c r="I106" s="46"/>
-      <c r="J106" s="45">
+      <c r="I109" s="46"/>
+      <c r="J109" s="45">
         <v>-2</v>
       </c>
-      <c r="K106" s="45">
-        <v>2</v>
-      </c>
-      <c r="L106" s="45">
-        <v>0</v>
-      </c>
-      <c r="M106" s="45">
-        <f>(K106-J106)/6</f>
+      <c r="K109" s="45">
+        <v>2</v>
+      </c>
+      <c r="L109" s="45">
+        <v>0</v>
+      </c>
+      <c r="M109" s="45">
+        <f>(K109-J109)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="N106" s="45">
+      <c r="N109" s="45">
         <v>1</v>
       </c>
-      <c r="Q106" s="43" t="s">
+      <c r="Q109" s="43" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="107" spans="1:17" s="43" customFormat="1">
-      <c r="B107" s="43" t="s">
+    <row r="110" spans="1:17" s="43" customFormat="1">
+      <c r="B110" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D107" s="43" t="s">
+      <c r="D110" s="43" t="s">
         <v>845</v>
       </c>
-      <c r="E107" s="43" t="s">
+      <c r="E110" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="F107" s="43" t="s">
+      <c r="F110" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G107" s="43" t="s">
+      <c r="G110" s="43" t="s">
         <v>844</v>
       </c>
-      <c r="H107" s="43">
+      <c r="H110" s="43">
         <v>-1</v>
       </c>
-      <c r="I107" s="46"/>
-      <c r="J107" s="45">
+      <c r="I110" s="46"/>
+      <c r="J110" s="45">
         <v>-2</v>
       </c>
-      <c r="K107" s="45">
-        <v>2</v>
-      </c>
-      <c r="L107" s="45">
-        <v>0</v>
-      </c>
-      <c r="M107" s="45">
-        <f>(K107-J107)/6</f>
+      <c r="K110" s="45">
+        <v>2</v>
+      </c>
+      <c r="L110" s="45">
+        <v>0</v>
+      </c>
+      <c r="M110" s="45">
+        <f>(K110-J110)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="N107" s="45">
+      <c r="N110" s="45">
         <v>1</v>
       </c>
-      <c r="Q107" s="43" t="s">
+      <c r="Q110" s="43" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
-      <c r="B108" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D108" s="31" t="s">
+    <row r="111" spans="1:17">
+      <c r="B111" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" s="31" t="s">
         <v>846</v>
       </c>
-      <c r="E108" s="31" t="s">
+      <c r="E111" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="F108" s="31" t="s">
+      <c r="F111" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="H108" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="3"/>
-      <c r="N108" s="3"/>
-    </row>
-    <row r="109" spans="1:17">
-      <c r="H109" s="31"/>
-      <c r="I109" s="31"/>
-    </row>
-    <row r="110" spans="1:17">
-      <c r="H110" s="31"/>
-      <c r="I110" s="31"/>
-    </row>
-    <row r="111" spans="1:17">
-      <c r="H111" s="31"/>
-      <c r="I111" s="31"/>
+      <c r="H111" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
     </row>
     <row r="112" spans="1:17">
       <c r="H112" s="31"/>
@@ -10462,8 +10551,20 @@
       <c r="H224" s="31"/>
       <c r="I224" s="31"/>
     </row>
+    <row r="225" spans="8:9">
+      <c r="H225" s="31"/>
+      <c r="I225" s="31"/>
+    </row>
+    <row r="226" spans="8:9">
+      <c r="H226" s="31"/>
+      <c r="I226" s="31"/>
+    </row>
+    <row r="227" spans="8:9">
+      <c r="H227" s="31"/>
+      <c r="I227" s="31"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:Z151"/>
+  <autoFilter ref="A2:Z154"/>
   <mergeCells count="1">
     <mergeCell ref="T1:Y1"/>
   </mergeCells>
@@ -10486,20 +10587,20 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.42578125" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="31"/>
+    <col min="4" max="4" width="10.42578125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.42578125" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="31" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18">
+    <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -10514,7 +10615,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.6">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.75">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -10549,7 +10650,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.8">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="47.25">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -11563,19 +11664,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -11594,7 +11695,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6">
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -11615,7 +11716,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6">
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -11638,7 +11739,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6">
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -11661,7 +11762,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6">
+    <row r="5" spans="1:9" ht="15.75">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -11684,7 +11785,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6">
+    <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -11707,7 +11808,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6">
+    <row r="7" spans="1:9" ht="15.75">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -11730,7 +11831,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6">
+    <row r="8" spans="1:9" ht="15.75">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -11753,7 +11854,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6">
+    <row r="9" spans="1:9" ht="15.75">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -11776,7 +11877,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6">
+    <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11799,7 +11900,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6">
+    <row r="11" spans="1:9" ht="15.75">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11818,7 +11919,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6">
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11839,7 +11940,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6">
+    <row r="13" spans="1:9" ht="15.75">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11862,7 +11963,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6">
+    <row r="14" spans="1:9" ht="15.75">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11885,7 +11986,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6">
+    <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11908,7 +12009,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6">
+    <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11931,7 +12032,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6">
+    <row r="17" spans="1:9" ht="15.75">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11954,7 +12055,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6">
+    <row r="18" spans="1:9" ht="15.75">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11977,7 +12078,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6">
+    <row r="19" spans="1:9" ht="15.75">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -12000,7 +12101,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6">
+    <row r="20" spans="1:9" ht="15.75">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -12023,7 +12124,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6">
+    <row r="21" spans="1:9" ht="15.75">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -12042,7 +12143,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6">
+    <row r="22" spans="1:9" ht="15.75">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -12065,7 +12166,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6">
+    <row r="23" spans="1:9" ht="15.75">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -12088,7 +12189,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6">
+    <row r="24" spans="1:9" ht="15.75">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -12111,7 +12212,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6">
+    <row r="25" spans="1:9" ht="15.75">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -12134,7 +12235,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6">
+    <row r="26" spans="1:9" ht="15.75">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -12157,7 +12258,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6">
+    <row r="27" spans="1:9" ht="15.75">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -12180,7 +12281,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6">
+    <row r="28" spans="1:9" ht="15.75">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -12203,7 +12304,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6">
+    <row r="29" spans="1:9" ht="15.75">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -12226,7 +12327,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6">
+    <row r="30" spans="1:9" ht="15.75">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -12249,7 +12350,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6">
+    <row r="31" spans="1:9" ht="15.75">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -12268,7 +12369,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6">
+    <row r="32" spans="1:9" ht="15.75">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -12289,7 +12390,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6">
+    <row r="33" spans="1:9" ht="15.75">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -12312,7 +12413,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6">
+    <row r="34" spans="1:9" ht="15.75">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -12335,7 +12436,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6">
+    <row r="35" spans="1:9" ht="15.75">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -12358,7 +12459,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6">
+    <row r="36" spans="1:9" ht="15.75">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -12381,7 +12482,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6">
+    <row r="37" spans="1:9" ht="15.75">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -12404,7 +12505,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6">
+    <row r="38" spans="1:9" ht="15.75">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -12427,7 +12528,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6">
+    <row r="39" spans="1:9" ht="15.75">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -12450,7 +12551,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6">
+    <row r="40" spans="1:9" ht="15.75">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -12473,7 +12574,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6">
+    <row r="41" spans="1:9" ht="15.75">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -12492,7 +12593,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6">
+    <row r="42" spans="1:9" ht="15.75">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -12513,7 +12614,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6">
+    <row r="43" spans="1:9" ht="15.75">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -12536,7 +12637,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6">
+    <row r="44" spans="1:9" ht="15.75">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -12559,7 +12660,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6">
+    <row r="45" spans="1:9" ht="15.75">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -12582,7 +12683,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6">
+    <row r="46" spans="1:9" ht="15.75">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -12605,7 +12706,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6">
+    <row r="47" spans="1:9" ht="15.75">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -12628,7 +12729,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6">
+    <row r="48" spans="1:9" ht="15.75">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -12651,7 +12752,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6">
+    <row r="49" spans="1:9" ht="15.75">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -12674,7 +12775,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6">
+    <row r="50" spans="1:9" ht="15.75">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -12697,7 +12798,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6">
+    <row r="51" spans="1:9" ht="15.75">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -12716,7 +12817,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6">
+    <row r="52" spans="1:9" ht="15.75">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12737,7 +12838,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6">
+    <row r="53" spans="1:9" ht="15.75">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12760,7 +12861,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6">
+    <row r="54" spans="1:9" ht="15.75">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12783,7 +12884,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6">
+    <row r="55" spans="1:9" ht="15.75">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12806,7 +12907,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6">
+    <row r="56" spans="1:9" ht="15.75">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12829,7 +12930,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6">
+    <row r="57" spans="1:9" ht="15.75">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12852,7 +12953,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6">
+    <row r="58" spans="1:9" ht="15.75">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12875,7 +12976,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6">
+    <row r="59" spans="1:9" ht="15.75">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12898,7 +12999,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6">
+    <row r="60" spans="1:9" ht="15.75">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12921,7 +13022,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6">
+    <row r="61" spans="1:9" ht="15.75">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12940,7 +13041,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6">
+    <row r="62" spans="1:9" ht="15.75">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12961,7 +13062,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6">
+    <row r="63" spans="1:9" ht="15.75">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12986,7 +13087,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6">
+    <row r="64" spans="1:9" ht="15.75">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -13009,7 +13110,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6">
+    <row r="65" spans="1:9" ht="15.75">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -13032,7 +13133,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6">
+    <row r="66" spans="1:9" ht="15.75">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -13055,7 +13156,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6">
+    <row r="67" spans="1:9" ht="15.75">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -13078,7 +13179,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6">
+    <row r="68" spans="1:9" ht="15.75">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -13101,7 +13202,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6">
+    <row r="69" spans="1:9" ht="15.75">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -13124,7 +13225,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6">
+    <row r="70" spans="1:9" ht="15.75">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -13147,7 +13248,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6">
+    <row r="71" spans="1:9" ht="15.75">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -13170,7 +13271,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6">
+    <row r="72" spans="1:9" ht="15.75">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -13189,7 +13290,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6">
+    <row r="73" spans="1:9" ht="15.75">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -13210,7 +13311,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6">
+    <row r="74" spans="1:9" ht="15.75">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -13233,7 +13334,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6">
+    <row r="75" spans="1:9" ht="15.75">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -13258,7 +13359,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6">
+    <row r="76" spans="1:9" ht="15.75">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -13281,7 +13382,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6">
+    <row r="77" spans="1:9" ht="15.75">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -13304,7 +13405,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6">
+    <row r="78" spans="1:9" ht="15.75">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -13327,7 +13428,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6">
+    <row r="79" spans="1:9" ht="15.75">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -13350,7 +13451,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6">
+    <row r="80" spans="1:9" ht="15.75">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -13373,7 +13474,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6">
+    <row r="81" spans="1:9" ht="15.75">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -13396,7 +13497,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6">
+    <row r="82" spans="1:9" ht="15.75">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -13419,7 +13520,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6">
+    <row r="83" spans="1:9" ht="15.75">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -13442,7 +13543,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6">
+    <row r="84" spans="1:9" ht="15.75">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -13465,7 +13566,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6">
+    <row r="85" spans="1:9" ht="15.75">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -13488,7 +13589,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6">
+    <row r="86" spans="1:9" ht="15.75">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -13507,7 +13608,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6">
+    <row r="87" spans="1:9" ht="15.75">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -13530,7 +13631,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6">
+    <row r="88" spans="1:9" ht="15.75">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -13553,7 +13654,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6">
+    <row r="89" spans="1:9" ht="15.75">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -13576,7 +13677,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6">
+    <row r="90" spans="1:9" ht="15.75">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -13599,7 +13700,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6">
+    <row r="91" spans="1:9" ht="15.75">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -13622,7 +13723,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6">
+    <row r="92" spans="1:9" ht="15.75">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -13645,7 +13746,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6">
+    <row r="93" spans="1:9" ht="15.75">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -13668,7 +13769,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6">
+    <row r="94" spans="1:9" ht="15.75">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -13691,7 +13792,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6">
+    <row r="95" spans="1:9" ht="15.75">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -13714,7 +13815,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6">
+    <row r="96" spans="1:9" ht="15.75">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13737,7 +13838,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6">
+    <row r="97" spans="1:9" ht="15.75">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13756,7 +13857,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6">
+    <row r="98" spans="1:9" ht="15.75">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13781,7 +13882,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6">
+    <row r="99" spans="1:9" ht="15.75">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13800,7 +13901,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6">
+    <row r="100" spans="1:9" ht="15.75">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13821,7 +13922,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6">
+    <row r="101" spans="1:9" ht="15.75">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13846,7 +13947,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6">
+    <row r="102" spans="1:9" ht="15.75">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13865,7 +13966,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6">
+    <row r="103" spans="1:9" ht="15.75">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13888,7 +13989,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6">
+    <row r="104" spans="1:9" ht="15.75">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13913,7 +14014,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6">
+    <row r="105" spans="1:9" ht="15.75">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13936,7 +14037,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6">
+    <row r="106" spans="1:9" ht="15.75">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13957,7 +14058,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6">
+    <row r="107" spans="1:9" ht="15.75">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13976,7 +14077,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6">
+    <row r="108" spans="1:9" ht="15.75">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -14001,7 +14102,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6">
+    <row r="109" spans="1:9" ht="15.75">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -14024,7 +14125,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6">
+    <row r="110" spans="1:9" ht="15.75">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -14047,7 +14148,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6">
+    <row r="111" spans="1:9" ht="15.75">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -14070,7 +14171,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6">
+    <row r="112" spans="1:9" ht="15.75">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -14093,7 +14194,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6">
+    <row r="113" spans="1:9" ht="15.75">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -14116,7 +14217,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6">
+    <row r="114" spans="1:9" ht="15.75">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -14139,7 +14240,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6">
+    <row r="115" spans="1:9" ht="15.75">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -14158,7 +14259,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6">
+    <row r="116" spans="1:9" ht="15.75">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -14181,7 +14282,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6">
+    <row r="117" spans="1:9" ht="15.75">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -14204,7 +14305,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6">
+    <row r="118" spans="1:9" ht="15.75">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -14227,7 +14328,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6">
+    <row r="119" spans="1:9" ht="15.75">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -14246,7 +14347,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6">
+    <row r="120" spans="1:9" ht="15.75">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -14269,7 +14370,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6">
+    <row r="121" spans="1:9" ht="15.75">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -14292,7 +14393,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6">
+    <row r="122" spans="1:9" ht="15.75">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -14315,7 +14416,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6">
+    <row r="123" spans="1:9" ht="15.75">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -14338,7 +14439,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6">
+    <row r="124" spans="1:9" ht="15.75">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -14361,7 +14462,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6">
+    <row r="125" spans="1:9" ht="15.75">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -14384,7 +14485,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6">
+    <row r="126" spans="1:9" ht="15.75">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -14403,7 +14504,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6">
+    <row r="127" spans="1:9" ht="15.75">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -14428,7 +14529,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6">
+    <row r="128" spans="1:9" ht="15.75">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -14451,7 +14552,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6">
+    <row r="129" spans="1:9" ht="15.75">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -14474,7 +14575,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6">
+    <row r="130" spans="1:9" ht="15.75">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -14497,7 +14598,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6">
+    <row r="131" spans="1:9" ht="15.75">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -14520,7 +14621,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6">
+    <row r="132" spans="1:9" ht="15.75">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -14543,7 +14644,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6">
+    <row r="133" spans="1:9" ht="15.75">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -14566,7 +14667,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6">
+    <row r="134" spans="1:9" ht="15.75">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -14589,7 +14690,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6">
+    <row r="135" spans="1:9" ht="15.75">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -14612,7 +14713,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6">
+    <row r="136" spans="1:9" ht="15.75">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -14631,7 +14732,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6">
+    <row r="137" spans="1:9" ht="15.75">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -14656,7 +14757,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6">
+    <row r="138" spans="1:9" ht="15.75">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -14677,7 +14778,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6">
+    <row r="139" spans="1:9" ht="15.75">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -14700,7 +14801,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6">
+    <row r="140" spans="1:9" ht="15.75">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -14723,7 +14824,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6">
+    <row r="141" spans="1:9" ht="15.75">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14746,7 +14847,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6">
+    <row r="142" spans="1:9" ht="15.75">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14769,7 +14870,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6">
+    <row r="143" spans="1:9" ht="15.75">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14792,7 +14893,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6">
+    <row r="144" spans="1:9" ht="15.75">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14815,7 +14916,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6">
+    <row r="145" spans="1:9" ht="15.75">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14838,7 +14939,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6">
+    <row r="146" spans="1:9" ht="15.75">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14861,7 +14962,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6">
+    <row r="147" spans="1:9" ht="15.75">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14884,7 +14985,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6">
+    <row r="148" spans="1:9" ht="15.75">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14907,7 +15008,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6">
+    <row r="149" spans="1:9" ht="15.75">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14930,7 +15031,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6">
+    <row r="150" spans="1:9" ht="15.75">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14953,7 +15054,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6">
+    <row r="151" spans="1:9" ht="15.75">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14972,7 +15073,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6">
+    <row r="152" spans="1:9" ht="15.75">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14995,7 +15096,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6">
+    <row r="153" spans="1:9" ht="15.75">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -15014,7 +15115,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6">
+    <row r="154" spans="1:9" ht="15.75">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -15037,7 +15138,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6">
+    <row r="155" spans="1:9" ht="15.75">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -15060,7 +15161,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6">
+    <row r="156" spans="1:9" ht="15.75">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -15079,7 +15180,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6">
+    <row r="157" spans="1:9" ht="15.75">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -15104,7 +15205,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6">
+    <row r="158" spans="1:9" ht="15.75">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -15127,7 +15228,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6">
+    <row r="159" spans="1:9" ht="15.75">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -15150,7 +15251,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6">
+    <row r="160" spans="1:9" ht="15.75">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -15173,7 +15274,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6">
+    <row r="161" spans="1:9" ht="15.75">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -15196,7 +15297,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6">
+    <row r="162" spans="1:9" ht="15.75">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -15219,7 +15320,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6">
+    <row r="163" spans="1:9" ht="15.75">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -15242,7 +15343,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6">
+    <row r="164" spans="1:9" ht="15.75">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -15265,7 +15366,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6">
+    <row r="165" spans="1:9" ht="15.75">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -15288,7 +15389,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6">
+    <row r="166" spans="1:9" ht="15.75">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -15311,7 +15412,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6">
+    <row r="167" spans="1:9" ht="15.75">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -15330,7 +15431,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6">
+    <row r="168" spans="1:9" ht="15.75">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -15355,7 +15456,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6">
+    <row r="169" spans="1:9" ht="15.75">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -15378,7 +15479,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6">
+    <row r="170" spans="1:9" ht="15.75">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -15401,7 +15502,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6">
+    <row r="171" spans="1:9" ht="15.75">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -15424,7 +15525,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6">
+    <row r="172" spans="1:9" ht="15.75">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -15447,7 +15548,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6">
+    <row r="173" spans="1:9" ht="15.75">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -15470,7 +15571,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6">
+    <row r="174" spans="1:9" ht="15.75">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -15493,7 +15594,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6">
+    <row r="175" spans="1:9" ht="15.75">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -15516,7 +15617,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6">
+    <row r="176" spans="1:9" ht="15.75">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -15539,7 +15640,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6">
+    <row r="177" spans="1:9" ht="15.75">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -15562,7 +15663,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6">
+    <row r="178" spans="1:9" ht="15.75">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -15581,7 +15682,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6">
+    <row r="179" spans="1:9" ht="15.75">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -15604,7 +15705,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6">
+    <row r="180" spans="1:9" ht="15.75">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -15627,7 +15728,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6">
+    <row r="181" spans="1:9" ht="15.75">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -15650,7 +15751,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6">
+    <row r="182" spans="1:9" ht="15.75">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -15673,7 +15774,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6">
+    <row r="183" spans="1:9" ht="15.75">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -15692,7 +15793,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6">
+    <row r="184" spans="1:9" ht="15.75">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -15715,7 +15816,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6">
+    <row r="185" spans="1:9" ht="15.75">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15738,7 +15839,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6">
+    <row r="186" spans="1:9" ht="15.75">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15761,7 +15862,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6">
+    <row r="187" spans="1:9" ht="15.75">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15784,7 +15885,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6">
+    <row r="188" spans="1:9" ht="15.75">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15803,7 +15904,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6">
+    <row r="189" spans="1:9" ht="15.75">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15824,7 +15925,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6">
+    <row r="190" spans="1:9" ht="15.75">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15847,7 +15948,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6">
+    <row r="191" spans="1:9" ht="15.75">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15866,7 +15967,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6">
+    <row r="192" spans="1:9" ht="15.75">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15889,7 +15990,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6">
+    <row r="193" spans="1:9" ht="15.75">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15914,7 +16015,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6">
+    <row r="194" spans="1:9" ht="15.75">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15935,7 +16036,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6">
+    <row r="195" spans="1:9" ht="15.75">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15960,7 +16061,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6">
+    <row r="196" spans="1:9" ht="15.75">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15985,7 +16086,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6">
+    <row r="197" spans="1:9" ht="15.75">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -16004,7 +16105,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6">
+    <row r="198" spans="1:9" ht="15.75">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -16029,7 +16130,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6">
+    <row r="199" spans="1:9" ht="15.75">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -16052,7 +16153,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6">
+    <row r="200" spans="1:9" ht="15.75">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -16075,7 +16176,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6">
+    <row r="201" spans="1:9" ht="15.75">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -16098,7 +16199,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6">
+    <row r="202" spans="1:9" ht="15.75">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -16121,7 +16222,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6">
+    <row r="203" spans="1:9" ht="15.75">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -16144,7 +16245,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6">
+    <row r="204" spans="1:9" ht="15.75">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -16167,7 +16268,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6">
+    <row r="205" spans="1:9" ht="15.75">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -16190,7 +16291,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6">
+    <row r="206" spans="1:9" ht="15.75">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -16213,7 +16314,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6">
+    <row r="207" spans="1:9" ht="15.75">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -16232,7 +16333,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6">
+    <row r="208" spans="1:9" ht="15.75">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -16257,7 +16358,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6">
+    <row r="209" spans="1:9" ht="15.75">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -16280,7 +16381,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6">
+    <row r="210" spans="1:9" ht="15.75">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -16303,7 +16404,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6">
+    <row r="211" spans="1:9" ht="15.75">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -16326,7 +16427,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6">
+    <row r="212" spans="1:9" ht="15.75">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -16349,7 +16450,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6">
+    <row r="213" spans="1:9" ht="15.75">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -16372,7 +16473,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6">
+    <row r="214" spans="1:9" ht="15.75">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -16395,7 +16496,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6">
+    <row r="215" spans="1:9" ht="15.75">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -16418,7 +16519,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6">
+    <row r="216" spans="1:9" ht="15.75">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -16441,7 +16542,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6">
+    <row r="217" spans="1:9" ht="15.75">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -16460,7 +16561,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6">
+    <row r="218" spans="1:9" ht="15.75">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -16481,7 +16582,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6">
+    <row r="219" spans="1:9" ht="15.75">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -16504,7 +16605,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6">
+    <row r="220" spans="1:9" ht="15.75">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -16527,7 +16628,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6">
+    <row r="221" spans="1:9" ht="15.75">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -16550,7 +16651,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6">
+    <row r="222" spans="1:9" ht="15.75">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -16573,7 +16674,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6">
+    <row r="223" spans="1:9" ht="15.75">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -16596,7 +16697,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6">
+    <row r="224" spans="1:9" ht="15.75">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -16619,7 +16720,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6">
+    <row r="225" spans="1:9" ht="15.75">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -16642,7 +16743,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6">
+    <row r="226" spans="1:9" ht="15.75">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -16665,7 +16766,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6">
+    <row r="227" spans="1:9" ht="15.75">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -16688,7 +16789,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6">
+    <row r="228" spans="1:9" ht="15.75">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -16711,7 +16812,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6">
+    <row r="229" spans="1:9" ht="15.75">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16734,7 +16835,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6">
+    <row r="230" spans="1:9" ht="15.75">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16757,7 +16858,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6">
+    <row r="231" spans="1:9" ht="15.75">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16780,7 +16881,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6">
+    <row r="232" spans="1:9" ht="15.75">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16803,7 +16904,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6">
+    <row r="233" spans="1:9" ht="15.75">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16826,7 +16927,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6">
+    <row r="234" spans="1:9" ht="15.75">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16845,7 +16946,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6">
+    <row r="235" spans="1:9" ht="15.75">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16866,7 +16967,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6">
+    <row r="236" spans="1:9" ht="15.75">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16889,7 +16990,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6">
+    <row r="237" spans="1:9" ht="15.75">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16912,7 +17013,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6">
+    <row r="238" spans="1:9" ht="15.75">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16935,7 +17036,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6">
+    <row r="239" spans="1:9" ht="15.75">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16958,7 +17059,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6">
+    <row r="240" spans="1:9" ht="15.75">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16981,7 +17082,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6">
+    <row r="241" spans="1:9" ht="15.75">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -17004,7 +17105,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6">
+    <row r="242" spans="1:9" ht="15.75">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -17027,7 +17128,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6">
+    <row r="243" spans="1:9" ht="15.75">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -17050,7 +17151,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6">
+    <row r="244" spans="1:9" ht="15.75">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -17073,7 +17174,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6">
+    <row r="245" spans="1:9" ht="15.75">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -17096,7 +17197,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6">
+    <row r="246" spans="1:9" ht="15.75">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -17119,7 +17220,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6">
+    <row r="247" spans="1:9" ht="15.75">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -17142,7 +17243,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6">
+    <row r="248" spans="1:9" ht="15.75">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -17165,7 +17266,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6">
+    <row r="249" spans="1:9" ht="15.75">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -17188,7 +17289,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6">
+    <row r="250" spans="1:9" ht="15.75">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -17211,7 +17312,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6">
+    <row r="251" spans="1:9" ht="15.75">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -17230,7 +17331,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6">
+    <row r="252" spans="1:9" ht="15.75">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -17255,7 +17356,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6">
+    <row r="253" spans="1:9" ht="15.75">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -17278,7 +17379,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6">
+    <row r="254" spans="1:9" ht="15.75">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -17301,7 +17402,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6">
+    <row r="255" spans="1:9" ht="15.75">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -17324,7 +17425,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6">
+    <row r="256" spans="1:9" ht="15.75">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -17347,7 +17448,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6">
+    <row r="257" spans="1:9" ht="15.75">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -17366,7 +17467,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6">
+    <row r="258" spans="1:9" ht="15.75">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -17391,7 +17492,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6">
+    <row r="259" spans="1:9" ht="15.75">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -17414,7 +17515,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6">
+    <row r="260" spans="1:9" ht="15.75">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -17433,7 +17534,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6">
+    <row r="261" spans="1:9" ht="15.75">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -17452,7 +17553,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6">
+    <row r="262" spans="1:9" ht="15.75">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -17471,7 +17572,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6">
+    <row r="263" spans="1:9" ht="15.75">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -17492,7 +17593,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6">
+    <row r="264" spans="1:9" ht="15.75">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -17515,7 +17616,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6">
+    <row r="265" spans="1:9" ht="15.75">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -17538,7 +17639,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6">
+    <row r="266" spans="1:9" ht="15.75">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -17561,7 +17662,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6">
+    <row r="267" spans="1:9" ht="15.75">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -17584,7 +17685,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6">
+    <row r="268" spans="1:9" ht="15.75">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -17607,7 +17708,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6">
+    <row r="269" spans="1:9" ht="15.75">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -17630,7 +17731,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6">
+    <row r="270" spans="1:9" ht="15.75">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -17653,7 +17754,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6">
+    <row r="271" spans="1:9" ht="15.75">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -17676,7 +17777,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6">
+    <row r="272" spans="1:9" ht="15.75">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -17699,7 +17800,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6">
+    <row r="273" spans="1:9" ht="15.75">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -17722,7 +17823,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6">
+    <row r="274" spans="1:9" ht="15.75">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17741,7 +17842,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6">
+    <row r="275" spans="1:9" ht="15.75">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17764,7 +17865,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6">
+    <row r="276" spans="1:9" ht="15.75">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17783,7 +17884,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6">
+    <row r="277" spans="1:9" ht="15.75">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17808,7 +17909,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6">
+    <row r="278" spans="1:9" ht="15.75">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17831,7 +17932,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6">
+    <row r="279" spans="1:9" ht="15.75">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17854,7 +17955,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6">
+    <row r="280" spans="1:9" ht="15.75">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17877,7 +17978,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6">
+    <row r="281" spans="1:9" ht="15.75">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17900,7 +18001,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6">
+    <row r="282" spans="1:9" ht="15.75">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17923,7 +18024,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6">
+    <row r="283" spans="1:9" ht="15.75">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17946,7 +18047,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6">
+    <row r="284" spans="1:9" ht="15.75">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17969,7 +18070,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6">
+    <row r="285" spans="1:9" ht="15.75">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17992,7 +18093,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6">
+    <row r="286" spans="1:9" ht="15.75">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -18015,7 +18116,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6">
+    <row r="287" spans="1:9" ht="15.75">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -18038,7 +18139,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6">
+    <row r="288" spans="1:9" ht="15.75">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -18057,7 +18158,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6">
+    <row r="289" spans="1:9" ht="15.75">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -18080,7 +18181,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6">
+    <row r="290" spans="1:9" ht="15.75">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -18099,7 +18200,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6">
+    <row r="291" spans="1:9" ht="15.75">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -18120,7 +18221,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6">
+    <row r="292" spans="1:9" ht="15.75">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -18139,7 +18240,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6">
+    <row r="293" spans="1:9" ht="15.75">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -18160,7 +18261,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6">
+    <row r="294" spans="1:9" ht="15.75">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -18179,7 +18280,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6">
+    <row r="295" spans="1:9" ht="15.75">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -18200,7 +18301,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6">
+    <row r="296" spans="1:9" ht="15.75">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -18219,7 +18320,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6">
+    <row r="297" spans="1:9" ht="15.75">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -18242,7 +18343,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6">
+    <row r="298" spans="1:9" ht="15.75">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -18261,7 +18362,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6">
+    <row r="299" spans="1:9" ht="15.75">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -18286,7 +18387,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6">
+    <row r="300" spans="1:9" ht="15.75">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -18309,7 +18410,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6">
+    <row r="301" spans="1:9" ht="15.75">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -18332,7 +18433,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6">
+    <row r="302" spans="1:9" ht="15.75">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -18355,7 +18456,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6">
+    <row r="303" spans="1:9" ht="15.75">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -18378,7 +18479,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6">
+    <row r="304" spans="1:9" ht="15.75">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -18401,7 +18502,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6">
+    <row r="305" spans="1:9" ht="15.75">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -18424,7 +18525,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6">
+    <row r="306" spans="1:9" ht="15.75">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -18447,7 +18548,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6">
+    <row r="307" spans="1:9" ht="15.75">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -18470,7 +18571,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6">
+    <row r="308" spans="1:9" ht="15.75">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -18489,7 +18590,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6">
+    <row r="309" spans="1:9" ht="15.75">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -18512,7 +18613,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6">
+    <row r="310" spans="1:9" ht="15.75">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -18535,7 +18636,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6">
+    <row r="311" spans="1:9" ht="15.75">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -18558,7 +18659,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6">
+    <row r="312" spans="1:9" ht="15.75">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -18581,7 +18682,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6">
+    <row r="313" spans="1:9" ht="15.75">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -18600,7 +18701,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6">
+    <row r="314" spans="1:9" ht="15.75">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -18623,7 +18724,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6">
+    <row r="315" spans="1:9" ht="15.75">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -18646,7 +18747,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6">
+    <row r="316" spans="1:9" ht="15.75">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -18671,7 +18772,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6">
+    <row r="317" spans="1:9" ht="15.75">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -18690,7 +18791,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6">
+    <row r="318" spans="1:9" ht="15.75">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -18715,7 +18816,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6">
+    <row r="319" spans="1:9" ht="15.75">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18738,7 +18839,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6">
+    <row r="320" spans="1:9" ht="15.75">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18757,7 +18858,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6">
+    <row r="321" spans="1:9" ht="15.75">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18778,7 +18879,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6">
+    <row r="322" spans="1:9" ht="15.75">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18799,7 +18900,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6">
+    <row r="323" spans="1:9" ht="15.75">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18822,7 +18923,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6">
+    <row r="324" spans="1:9" ht="15.75">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18841,7 +18942,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6">
+    <row r="325" spans="1:9" ht="15.75">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18860,7 +18961,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6">
+    <row r="326" spans="1:9" ht="15.75">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18885,7 +18986,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6">
+    <row r="327" spans="1:9" ht="15.75">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -19242,7 +19343,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6">
+    <row r="344" spans="1:16" ht="15.75">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -19605,7 +19706,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.75">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19733,14 +19834,14 @@
       <selection activeCell="L17" sqref="L17:N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="17" max="17" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">

--- a/projects/office_calibration_rgenoud.xlsx
+++ b/projects/office_calibration_rgenoud.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13170" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -6893,17 +6893,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="81.7109375" customWidth="1"/>
+    <col min="1" max="1" width="81.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="45">
+    <row r="1" spans="1:1" ht="28.8">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="30">
+    <row r="2" spans="1:1" ht="28.8">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6923,18 +6923,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="1"/>
+    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6966,7 +6966,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30">
+    <row r="4" spans="1:5" ht="28.8">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="75">
+    <row r="5" spans="1:5" ht="72">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.15" customHeight="1">
+    <row r="6" spans="1:5" ht="46.2" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30">
+    <row r="7" spans="1:5" ht="28.8">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30">
+    <row r="8" spans="1:5" ht="28.8">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30">
+    <row r="16" spans="1:5" ht="28.8">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="60">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -7161,7 +7161,7 @@
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="60">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>561</v>
       </c>
       <c r="B24" s="30">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C24" s="30" t="s">
         <v>579</v>
@@ -7267,7 +7267,7 @@
         <v>557</v>
       </c>
       <c r="B31" s="29">
-        <v>900360000000000</v>
+        <v>450360000000000</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>575</v>
@@ -7320,7 +7320,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="45">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="30">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7370,7 +7370,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="60">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7426,37 +7426,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N74" sqref="N74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="31" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.7109375" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="31"/>
-    <col min="16" max="16" width="11.42578125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.6640625" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="31"/>
+    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
-    <col min="18" max="18" width="27.7109375" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.140625" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.42578125" style="31"/>
-    <col min="23" max="23" width="13.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.42578125" style="31"/>
+    <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
+    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.44140625" style="31"/>
+    <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.75">
+    <row r="1" spans="1:25" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7491,7 +7491,7 @@
       <c r="X1" s="53"/>
       <c r="Y1" s="53"/>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.75">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.6">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7507,7 +7507,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="63">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7774,7 +7774,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" ht="18">
+    <row r="14" spans="1:25" ht="17.399999999999999">
       <c r="A14" s="30"/>
       <c r="B14" s="30" t="s">
         <v>21</v>
@@ -8956,7 +8956,7 @@
         <v>0.14166666666666669</v>
       </c>
       <c r="N64" s="43">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Q64" s="43" t="s">
         <v>773</v>
@@ -9046,7 +9046,7 @@
         <v>0.14166666666666669</v>
       </c>
       <c r="N68" s="43">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Q68" s="43" t="s">
         <v>773</v>
@@ -9136,7 +9136,7 @@
         <v>0.14166666666666669</v>
       </c>
       <c r="N72" s="43">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Q72" s="43" t="s">
         <v>773</v>
@@ -10587,20 +10587,20 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="29.42578125" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="31" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.42578125" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="31" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="31"/>
+    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -10615,7 +10615,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.75">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.6">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -10650,7 +10650,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="47.25">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.8">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -11664,19 +11664,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" spans="1:9" ht="15.6">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -11695,7 +11695,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
+    <row r="2" spans="1:9" ht="15.6">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -11716,7 +11716,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75">
+    <row r="3" spans="1:9" ht="15.6">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -11739,7 +11739,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75">
+    <row r="4" spans="1:9" ht="15.6">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -11762,7 +11762,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:9" ht="15.6">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75">
+    <row r="6" spans="1:9" ht="15.6">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -11808,7 +11808,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75">
+    <row r="7" spans="1:9" ht="15.6">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -11831,7 +11831,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75">
+    <row r="8" spans="1:9" ht="15.6">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -11854,7 +11854,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75">
+    <row r="9" spans="1:9" ht="15.6">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -11877,7 +11877,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75">
+    <row r="10" spans="1:9" ht="15.6">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11900,7 +11900,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75">
+    <row r="11" spans="1:9" ht="15.6">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11919,7 +11919,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75">
+    <row r="12" spans="1:9" ht="15.6">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11940,7 +11940,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75">
+    <row r="13" spans="1:9" ht="15.6">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11963,7 +11963,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75">
+    <row r="14" spans="1:9" ht="15.6">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11986,7 +11986,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75">
+    <row r="15" spans="1:9" ht="15.6">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -12009,7 +12009,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75">
+    <row r="16" spans="1:9" ht="15.6">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -12032,7 +12032,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75">
+    <row r="17" spans="1:9" ht="15.6">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -12055,7 +12055,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75">
+    <row r="18" spans="1:9" ht="15.6">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -12078,7 +12078,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75">
+    <row r="19" spans="1:9" ht="15.6">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -12101,7 +12101,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75">
+    <row r="20" spans="1:9" ht="15.6">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -12124,7 +12124,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75">
+    <row r="21" spans="1:9" ht="15.6">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -12143,7 +12143,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75">
+    <row r="22" spans="1:9" ht="15.6">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -12166,7 +12166,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75">
+    <row r="23" spans="1:9" ht="15.6">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -12189,7 +12189,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75">
+    <row r="24" spans="1:9" ht="15.6">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -12212,7 +12212,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75">
+    <row r="25" spans="1:9" ht="15.6">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -12235,7 +12235,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75">
+    <row r="26" spans="1:9" ht="15.6">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -12258,7 +12258,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75">
+    <row r="27" spans="1:9" ht="15.6">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -12281,7 +12281,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75">
+    <row r="28" spans="1:9" ht="15.6">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -12304,7 +12304,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75">
+    <row r="29" spans="1:9" ht="15.6">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -12327,7 +12327,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75">
+    <row r="30" spans="1:9" ht="15.6">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -12350,7 +12350,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75">
+    <row r="31" spans="1:9" ht="15.6">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -12369,7 +12369,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75">
+    <row r="32" spans="1:9" ht="15.6">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -12390,7 +12390,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75">
+    <row r="33" spans="1:9" ht="15.6">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -12413,7 +12413,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75">
+    <row r="34" spans="1:9" ht="15.6">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -12436,7 +12436,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75">
+    <row r="35" spans="1:9" ht="15.6">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -12459,7 +12459,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75">
+    <row r="36" spans="1:9" ht="15.6">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -12482,7 +12482,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75">
+    <row r="37" spans="1:9" ht="15.6">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -12505,7 +12505,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75">
+    <row r="38" spans="1:9" ht="15.6">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -12528,7 +12528,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75">
+    <row r="39" spans="1:9" ht="15.6">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -12551,7 +12551,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75">
+    <row r="40" spans="1:9" ht="15.6">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -12574,7 +12574,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75">
+    <row r="41" spans="1:9" ht="15.6">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -12593,7 +12593,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75">
+    <row r="42" spans="1:9" ht="15.6">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -12614,7 +12614,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75">
+    <row r="43" spans="1:9" ht="15.6">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -12637,7 +12637,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75">
+    <row r="44" spans="1:9" ht="15.6">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -12660,7 +12660,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75">
+    <row r="45" spans="1:9" ht="15.6">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -12683,7 +12683,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75">
+    <row r="46" spans="1:9" ht="15.6">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -12706,7 +12706,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75">
+    <row r="47" spans="1:9" ht="15.6">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -12729,7 +12729,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75">
+    <row r="48" spans="1:9" ht="15.6">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -12752,7 +12752,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.75">
+    <row r="49" spans="1:9" ht="15.6">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -12775,7 +12775,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75">
+    <row r="50" spans="1:9" ht="15.6">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -12798,7 +12798,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75">
+    <row r="51" spans="1:9" ht="15.6">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -12817,7 +12817,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75">
+    <row r="52" spans="1:9" ht="15.6">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12838,7 +12838,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75">
+    <row r="53" spans="1:9" ht="15.6">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12861,7 +12861,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75">
+    <row r="54" spans="1:9" ht="15.6">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12884,7 +12884,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75">
+    <row r="55" spans="1:9" ht="15.6">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12907,7 +12907,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.75">
+    <row r="56" spans="1:9" ht="15.6">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12930,7 +12930,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.75">
+    <row r="57" spans="1:9" ht="15.6">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12953,7 +12953,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.75">
+    <row r="58" spans="1:9" ht="15.6">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12976,7 +12976,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.75">
+    <row r="59" spans="1:9" ht="15.6">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12999,7 +12999,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.75">
+    <row r="60" spans="1:9" ht="15.6">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -13022,7 +13022,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.75">
+    <row r="61" spans="1:9" ht="15.6">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -13041,7 +13041,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.75">
+    <row r="62" spans="1:9" ht="15.6">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -13062,7 +13062,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.75">
+    <row r="63" spans="1:9" ht="15.6">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -13087,7 +13087,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.75">
+    <row r="64" spans="1:9" ht="15.6">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -13110,7 +13110,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.75">
+    <row r="65" spans="1:9" ht="15.6">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -13133,7 +13133,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.75">
+    <row r="66" spans="1:9" ht="15.6">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -13156,7 +13156,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.75">
+    <row r="67" spans="1:9" ht="15.6">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -13179,7 +13179,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.75">
+    <row r="68" spans="1:9" ht="15.6">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -13202,7 +13202,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.75">
+    <row r="69" spans="1:9" ht="15.6">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.75">
+    <row r="70" spans="1:9" ht="15.6">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -13248,7 +13248,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75">
+    <row r="71" spans="1:9" ht="15.6">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -13271,7 +13271,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75">
+    <row r="72" spans="1:9" ht="15.6">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -13290,7 +13290,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.75">
+    <row r="73" spans="1:9" ht="15.6">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -13311,7 +13311,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.75">
+    <row r="74" spans="1:9" ht="15.6">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -13334,7 +13334,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.75">
+    <row r="75" spans="1:9" ht="15.6">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -13359,7 +13359,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.75">
+    <row r="76" spans="1:9" ht="15.6">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -13382,7 +13382,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.75">
+    <row r="77" spans="1:9" ht="15.6">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -13405,7 +13405,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.75">
+    <row r="78" spans="1:9" ht="15.6">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -13428,7 +13428,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.75">
+    <row r="79" spans="1:9" ht="15.6">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -13451,7 +13451,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.75">
+    <row r="80" spans="1:9" ht="15.6">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -13474,7 +13474,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.75">
+    <row r="81" spans="1:9" ht="15.6">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -13497,7 +13497,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.75">
+    <row r="82" spans="1:9" ht="15.6">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -13520,7 +13520,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.75">
+    <row r="83" spans="1:9" ht="15.6">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -13543,7 +13543,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.75">
+    <row r="84" spans="1:9" ht="15.6">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -13566,7 +13566,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.75">
+    <row r="85" spans="1:9" ht="15.6">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -13589,7 +13589,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.75">
+    <row r="86" spans="1:9" ht="15.6">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -13608,7 +13608,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.75">
+    <row r="87" spans="1:9" ht="15.6">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -13631,7 +13631,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.75">
+    <row r="88" spans="1:9" ht="15.6">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -13654,7 +13654,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.75">
+    <row r="89" spans="1:9" ht="15.6">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -13677,7 +13677,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75">
+    <row r="90" spans="1:9" ht="15.6">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -13700,7 +13700,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.75">
+    <row r="91" spans="1:9" ht="15.6">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -13723,7 +13723,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.75">
+    <row r="92" spans="1:9" ht="15.6">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -13746,7 +13746,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.75">
+    <row r="93" spans="1:9" ht="15.6">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -13769,7 +13769,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.75">
+    <row r="94" spans="1:9" ht="15.6">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -13792,7 +13792,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.75">
+    <row r="95" spans="1:9" ht="15.6">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -13815,7 +13815,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.75">
+    <row r="96" spans="1:9" ht="15.6">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13838,7 +13838,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.75">
+    <row r="97" spans="1:9" ht="15.6">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13857,7 +13857,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.75">
+    <row r="98" spans="1:9" ht="15.6">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13882,7 +13882,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.75">
+    <row r="99" spans="1:9" ht="15.6">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13901,7 +13901,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.75">
+    <row r="100" spans="1:9" ht="15.6">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13922,7 +13922,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.75">
+    <row r="101" spans="1:9" ht="15.6">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13947,7 +13947,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.75">
+    <row r="102" spans="1:9" ht="15.6">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13966,7 +13966,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.75">
+    <row r="103" spans="1:9" ht="15.6">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13989,7 +13989,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.75">
+    <row r="104" spans="1:9" ht="15.6">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -14014,7 +14014,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75">
+    <row r="105" spans="1:9" ht="15.6">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -14037,7 +14037,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75">
+    <row r="106" spans="1:9" ht="15.6">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -14058,7 +14058,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.75">
+    <row r="107" spans="1:9" ht="15.6">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -14077,7 +14077,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.75">
+    <row r="108" spans="1:9" ht="15.6">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -14102,7 +14102,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75">
+    <row r="109" spans="1:9" ht="15.6">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -14125,7 +14125,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.75">
+    <row r="110" spans="1:9" ht="15.6">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -14148,7 +14148,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.75">
+    <row r="111" spans="1:9" ht="15.6">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -14171,7 +14171,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.75">
+    <row r="112" spans="1:9" ht="15.6">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -14194,7 +14194,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.75">
+    <row r="113" spans="1:9" ht="15.6">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -14217,7 +14217,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.75">
+    <row r="114" spans="1:9" ht="15.6">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -14240,7 +14240,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.75">
+    <row r="115" spans="1:9" ht="15.6">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -14259,7 +14259,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.75">
+    <row r="116" spans="1:9" ht="15.6">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -14282,7 +14282,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.75">
+    <row r="117" spans="1:9" ht="15.6">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -14305,7 +14305,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.75">
+    <row r="118" spans="1:9" ht="15.6">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -14328,7 +14328,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.75">
+    <row r="119" spans="1:9" ht="15.6">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -14347,7 +14347,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.75">
+    <row r="120" spans="1:9" ht="15.6">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -14370,7 +14370,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.75">
+    <row r="121" spans="1:9" ht="15.6">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -14393,7 +14393,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.75">
+    <row r="122" spans="1:9" ht="15.6">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -14416,7 +14416,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.75">
+    <row r="123" spans="1:9" ht="15.6">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -14439,7 +14439,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.75">
+    <row r="124" spans="1:9" ht="15.6">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -14462,7 +14462,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.75">
+    <row r="125" spans="1:9" ht="15.6">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -14485,7 +14485,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.75">
+    <row r="126" spans="1:9" ht="15.6">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -14504,7 +14504,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.75">
+    <row r="127" spans="1:9" ht="15.6">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -14529,7 +14529,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.75">
+    <row r="128" spans="1:9" ht="15.6">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -14552,7 +14552,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.75">
+    <row r="129" spans="1:9" ht="15.6">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -14575,7 +14575,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.75">
+    <row r="130" spans="1:9" ht="15.6">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -14598,7 +14598,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.75">
+    <row r="131" spans="1:9" ht="15.6">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -14621,7 +14621,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.75">
+    <row r="132" spans="1:9" ht="15.6">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -14644,7 +14644,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.75">
+    <row r="133" spans="1:9" ht="15.6">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -14667,7 +14667,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.75">
+    <row r="134" spans="1:9" ht="15.6">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -14690,7 +14690,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.75">
+    <row r="135" spans="1:9" ht="15.6">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.75">
+    <row r="136" spans="1:9" ht="15.6">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -14732,7 +14732,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.75">
+    <row r="137" spans="1:9" ht="15.6">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -14757,7 +14757,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.75">
+    <row r="138" spans="1:9" ht="15.6">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -14778,7 +14778,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.75">
+    <row r="139" spans="1:9" ht="15.6">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -14801,7 +14801,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.75">
+    <row r="140" spans="1:9" ht="15.6">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -14824,7 +14824,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.75">
+    <row r="141" spans="1:9" ht="15.6">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14847,7 +14847,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.75">
+    <row r="142" spans="1:9" ht="15.6">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14870,7 +14870,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.75">
+    <row r="143" spans="1:9" ht="15.6">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14893,7 +14893,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.75">
+    <row r="144" spans="1:9" ht="15.6">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14916,7 +14916,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.75">
+    <row r="145" spans="1:9" ht="15.6">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14939,7 +14939,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.75">
+    <row r="146" spans="1:9" ht="15.6">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14962,7 +14962,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.75">
+    <row r="147" spans="1:9" ht="15.6">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14985,7 +14985,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.75">
+    <row r="148" spans="1:9" ht="15.6">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -15008,7 +15008,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.75">
+    <row r="149" spans="1:9" ht="15.6">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -15031,7 +15031,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.75">
+    <row r="150" spans="1:9" ht="15.6">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -15054,7 +15054,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.75">
+    <row r="151" spans="1:9" ht="15.6">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -15073,7 +15073,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.75">
+    <row r="152" spans="1:9" ht="15.6">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -15096,7 +15096,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.75">
+    <row r="153" spans="1:9" ht="15.6">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -15115,7 +15115,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.75">
+    <row r="154" spans="1:9" ht="15.6">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -15138,7 +15138,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.75">
+    <row r="155" spans="1:9" ht="15.6">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -15161,7 +15161,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.75">
+    <row r="156" spans="1:9" ht="15.6">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -15180,7 +15180,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.75">
+    <row r="157" spans="1:9" ht="15.6">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -15205,7 +15205,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.75">
+    <row r="158" spans="1:9" ht="15.6">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -15228,7 +15228,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.75">
+    <row r="159" spans="1:9" ht="15.6">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -15251,7 +15251,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.75">
+    <row r="160" spans="1:9" ht="15.6">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -15274,7 +15274,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.75">
+    <row r="161" spans="1:9" ht="15.6">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -15297,7 +15297,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.75">
+    <row r="162" spans="1:9" ht="15.6">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -15320,7 +15320,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.75">
+    <row r="163" spans="1:9" ht="15.6">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -15343,7 +15343,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.75">
+    <row r="164" spans="1:9" ht="15.6">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -15366,7 +15366,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.75">
+    <row r="165" spans="1:9" ht="15.6">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -15389,7 +15389,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.75">
+    <row r="166" spans="1:9" ht="15.6">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -15412,7 +15412,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.75">
+    <row r="167" spans="1:9" ht="15.6">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -15431,7 +15431,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.75">
+    <row r="168" spans="1:9" ht="15.6">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -15456,7 +15456,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.75">
+    <row r="169" spans="1:9" ht="15.6">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -15479,7 +15479,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.75">
+    <row r="170" spans="1:9" ht="15.6">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -15502,7 +15502,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.75">
+    <row r="171" spans="1:9" ht="15.6">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -15525,7 +15525,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.75">
+    <row r="172" spans="1:9" ht="15.6">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -15548,7 +15548,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.75">
+    <row r="173" spans="1:9" ht="15.6">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -15571,7 +15571,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.75">
+    <row r="174" spans="1:9" ht="15.6">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -15594,7 +15594,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.75">
+    <row r="175" spans="1:9" ht="15.6">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -15617,7 +15617,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.75">
+    <row r="176" spans="1:9" ht="15.6">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -15640,7 +15640,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.75">
+    <row r="177" spans="1:9" ht="15.6">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -15663,7 +15663,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.75">
+    <row r="178" spans="1:9" ht="15.6">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -15682,7 +15682,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.75">
+    <row r="179" spans="1:9" ht="15.6">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -15705,7 +15705,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.75">
+    <row r="180" spans="1:9" ht="15.6">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -15728,7 +15728,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.75">
+    <row r="181" spans="1:9" ht="15.6">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -15751,7 +15751,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.75">
+    <row r="182" spans="1:9" ht="15.6">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -15774,7 +15774,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.75">
+    <row r="183" spans="1:9" ht="15.6">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -15793,7 +15793,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.75">
+    <row r="184" spans="1:9" ht="15.6">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -15816,7 +15816,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.75">
+    <row r="185" spans="1:9" ht="15.6">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15839,7 +15839,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.75">
+    <row r="186" spans="1:9" ht="15.6">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15862,7 +15862,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.75">
+    <row r="187" spans="1:9" ht="15.6">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15885,7 +15885,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.75">
+    <row r="188" spans="1:9" ht="15.6">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15904,7 +15904,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.75">
+    <row r="189" spans="1:9" ht="15.6">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15925,7 +15925,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.75">
+    <row r="190" spans="1:9" ht="15.6">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15948,7 +15948,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.75">
+    <row r="191" spans="1:9" ht="15.6">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15967,7 +15967,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.75">
+    <row r="192" spans="1:9" ht="15.6">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15990,7 +15990,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.75">
+    <row r="193" spans="1:9" ht="15.6">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -16015,7 +16015,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.75">
+    <row r="194" spans="1:9" ht="15.6">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -16036,7 +16036,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.75">
+    <row r="195" spans="1:9" ht="15.6">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -16061,7 +16061,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.75">
+    <row r="196" spans="1:9" ht="15.6">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -16086,7 +16086,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.75">
+    <row r="197" spans="1:9" ht="15.6">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -16105,7 +16105,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.75">
+    <row r="198" spans="1:9" ht="15.6">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -16130,7 +16130,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.75">
+    <row r="199" spans="1:9" ht="15.6">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.75">
+    <row r="200" spans="1:9" ht="15.6">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -16176,7 +16176,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.75">
+    <row r="201" spans="1:9" ht="15.6">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -16199,7 +16199,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.75">
+    <row r="202" spans="1:9" ht="15.6">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -16222,7 +16222,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.75">
+    <row r="203" spans="1:9" ht="15.6">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -16245,7 +16245,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.75">
+    <row r="204" spans="1:9" ht="15.6">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -16268,7 +16268,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.75">
+    <row r="205" spans="1:9" ht="15.6">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -16291,7 +16291,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.75">
+    <row r="206" spans="1:9" ht="15.6">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -16314,7 +16314,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.75">
+    <row r="207" spans="1:9" ht="15.6">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -16333,7 +16333,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.75">
+    <row r="208" spans="1:9" ht="15.6">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -16358,7 +16358,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.75">
+    <row r="209" spans="1:9" ht="15.6">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -16381,7 +16381,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.75">
+    <row r="210" spans="1:9" ht="15.6">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -16404,7 +16404,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.75">
+    <row r="211" spans="1:9" ht="15.6">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -16427,7 +16427,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.75">
+    <row r="212" spans="1:9" ht="15.6">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -16450,7 +16450,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.75">
+    <row r="213" spans="1:9" ht="15.6">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -16473,7 +16473,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.75">
+    <row r="214" spans="1:9" ht="15.6">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -16496,7 +16496,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.75">
+    <row r="215" spans="1:9" ht="15.6">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -16519,7 +16519,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.75">
+    <row r="216" spans="1:9" ht="15.6">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -16542,7 +16542,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.75">
+    <row r="217" spans="1:9" ht="15.6">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -16561,7 +16561,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.75">
+    <row r="218" spans="1:9" ht="15.6">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -16582,7 +16582,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.75">
+    <row r="219" spans="1:9" ht="15.6">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -16605,7 +16605,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.75">
+    <row r="220" spans="1:9" ht="15.6">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -16628,7 +16628,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.75">
+    <row r="221" spans="1:9" ht="15.6">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -16651,7 +16651,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.75">
+    <row r="222" spans="1:9" ht="15.6">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -16674,7 +16674,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.75">
+    <row r="223" spans="1:9" ht="15.6">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -16697,7 +16697,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.75">
+    <row r="224" spans="1:9" ht="15.6">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -16720,7 +16720,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.75">
+    <row r="225" spans="1:9" ht="15.6">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -16743,7 +16743,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.75">
+    <row r="226" spans="1:9" ht="15.6">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -16766,7 +16766,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.75">
+    <row r="227" spans="1:9" ht="15.6">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -16789,7 +16789,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.75">
+    <row r="228" spans="1:9" ht="15.6">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -16812,7 +16812,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.75">
+    <row r="229" spans="1:9" ht="15.6">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16835,7 +16835,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.75">
+    <row r="230" spans="1:9" ht="15.6">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16858,7 +16858,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.75">
+    <row r="231" spans="1:9" ht="15.6">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16881,7 +16881,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.75">
+    <row r="232" spans="1:9" ht="15.6">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16904,7 +16904,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.75">
+    <row r="233" spans="1:9" ht="15.6">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16927,7 +16927,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.75">
+    <row r="234" spans="1:9" ht="15.6">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16946,7 +16946,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.75">
+    <row r="235" spans="1:9" ht="15.6">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16967,7 +16967,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.75">
+    <row r="236" spans="1:9" ht="15.6">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16990,7 +16990,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.75">
+    <row r="237" spans="1:9" ht="15.6">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.75">
+    <row r="238" spans="1:9" ht="15.6">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -17036,7 +17036,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.75">
+    <row r="239" spans="1:9" ht="15.6">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -17059,7 +17059,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.75">
+    <row r="240" spans="1:9" ht="15.6">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -17082,7 +17082,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.75">
+    <row r="241" spans="1:9" ht="15.6">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -17105,7 +17105,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.75">
+    <row r="242" spans="1:9" ht="15.6">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -17128,7 +17128,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.75">
+    <row r="243" spans="1:9" ht="15.6">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -17151,7 +17151,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.75">
+    <row r="244" spans="1:9" ht="15.6">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -17174,7 +17174,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.75">
+    <row r="245" spans="1:9" ht="15.6">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -17197,7 +17197,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.75">
+    <row r="246" spans="1:9" ht="15.6">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -17220,7 +17220,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.75">
+    <row r="247" spans="1:9" ht="15.6">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -17243,7 +17243,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.75">
+    <row r="248" spans="1:9" ht="15.6">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -17266,7 +17266,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.75">
+    <row r="249" spans="1:9" ht="15.6">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -17289,7 +17289,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.75">
+    <row r="250" spans="1:9" ht="15.6">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -17312,7 +17312,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.75">
+    <row r="251" spans="1:9" ht="15.6">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -17331,7 +17331,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.75">
+    <row r="252" spans="1:9" ht="15.6">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -17356,7 +17356,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.75">
+    <row r="253" spans="1:9" ht="15.6">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -17379,7 +17379,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.75">
+    <row r="254" spans="1:9" ht="15.6">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -17402,7 +17402,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.75">
+    <row r="255" spans="1:9" ht="15.6">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -17425,7 +17425,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.75">
+    <row r="256" spans="1:9" ht="15.6">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -17448,7 +17448,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.75">
+    <row r="257" spans="1:9" ht="15.6">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -17467,7 +17467,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.75">
+    <row r="258" spans="1:9" ht="15.6">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -17492,7 +17492,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.75">
+    <row r="259" spans="1:9" ht="15.6">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -17515,7 +17515,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.75">
+    <row r="260" spans="1:9" ht="15.6">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -17534,7 +17534,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.75">
+    <row r="261" spans="1:9" ht="15.6">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -17553,7 +17553,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.75">
+    <row r="262" spans="1:9" ht="15.6">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -17572,7 +17572,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.75">
+    <row r="263" spans="1:9" ht="15.6">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -17593,7 +17593,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.75">
+    <row r="264" spans="1:9" ht="15.6">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -17616,7 +17616,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.75">
+    <row r="265" spans="1:9" ht="15.6">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -17639,7 +17639,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.75">
+    <row r="266" spans="1:9" ht="15.6">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -17662,7 +17662,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.75">
+    <row r="267" spans="1:9" ht="15.6">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.75">
+    <row r="268" spans="1:9" ht="15.6">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -17708,7 +17708,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.75">
+    <row r="269" spans="1:9" ht="15.6">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -17731,7 +17731,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.75">
+    <row r="270" spans="1:9" ht="15.6">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -17754,7 +17754,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.75">
+    <row r="271" spans="1:9" ht="15.6">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -17777,7 +17777,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.75">
+    <row r="272" spans="1:9" ht="15.6">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -17800,7 +17800,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.75">
+    <row r="273" spans="1:9" ht="15.6">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -17823,7 +17823,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.75">
+    <row r="274" spans="1:9" ht="15.6">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17842,7 +17842,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.75">
+    <row r="275" spans="1:9" ht="15.6">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17865,7 +17865,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.75">
+    <row r="276" spans="1:9" ht="15.6">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17884,7 +17884,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.75">
+    <row r="277" spans="1:9" ht="15.6">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17909,7 +17909,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.75">
+    <row r="278" spans="1:9" ht="15.6">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17932,7 +17932,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.75">
+    <row r="279" spans="1:9" ht="15.6">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17955,7 +17955,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.75">
+    <row r="280" spans="1:9" ht="15.6">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17978,7 +17978,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.75">
+    <row r="281" spans="1:9" ht="15.6">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -18001,7 +18001,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.75">
+    <row r="282" spans="1:9" ht="15.6">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -18024,7 +18024,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.75">
+    <row r="283" spans="1:9" ht="15.6">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -18047,7 +18047,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.75">
+    <row r="284" spans="1:9" ht="15.6">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -18070,7 +18070,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.75">
+    <row r="285" spans="1:9" ht="15.6">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -18093,7 +18093,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.75">
+    <row r="286" spans="1:9" ht="15.6">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -18116,7 +18116,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.75">
+    <row r="287" spans="1:9" ht="15.6">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -18139,7 +18139,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.75">
+    <row r="288" spans="1:9" ht="15.6">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -18158,7 +18158,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.75">
+    <row r="289" spans="1:9" ht="15.6">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -18181,7 +18181,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.75">
+    <row r="290" spans="1:9" ht="15.6">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -18200,7 +18200,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.75">
+    <row r="291" spans="1:9" ht="15.6">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -18221,7 +18221,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.75">
+    <row r="292" spans="1:9" ht="15.6">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -18240,7 +18240,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.75">
+    <row r="293" spans="1:9" ht="15.6">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -18261,7 +18261,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.75">
+    <row r="294" spans="1:9" ht="15.6">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -18280,7 +18280,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.75">
+    <row r="295" spans="1:9" ht="15.6">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -18301,7 +18301,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.75">
+    <row r="296" spans="1:9" ht="15.6">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -18320,7 +18320,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.75">
+    <row r="297" spans="1:9" ht="15.6">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -18343,7 +18343,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.75">
+    <row r="298" spans="1:9" ht="15.6">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -18362,7 +18362,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.75">
+    <row r="299" spans="1:9" ht="15.6">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -18387,7 +18387,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.75">
+    <row r="300" spans="1:9" ht="15.6">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -18410,7 +18410,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.75">
+    <row r="301" spans="1:9" ht="15.6">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -18433,7 +18433,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.75">
+    <row r="302" spans="1:9" ht="15.6">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -18456,7 +18456,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.75">
+    <row r="303" spans="1:9" ht="15.6">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -18479,7 +18479,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.75">
+    <row r="304" spans="1:9" ht="15.6">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -18502,7 +18502,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.75">
+    <row r="305" spans="1:9" ht="15.6">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -18525,7 +18525,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.75">
+    <row r="306" spans="1:9" ht="15.6">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -18548,7 +18548,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.75">
+    <row r="307" spans="1:9" ht="15.6">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -18571,7 +18571,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.75">
+    <row r="308" spans="1:9" ht="15.6">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -18590,7 +18590,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.75">
+    <row r="309" spans="1:9" ht="15.6">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -18613,7 +18613,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.75">
+    <row r="310" spans="1:9" ht="15.6">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -18636,7 +18636,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.75">
+    <row r="311" spans="1:9" ht="15.6">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -18659,7 +18659,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.75">
+    <row r="312" spans="1:9" ht="15.6">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -18682,7 +18682,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.75">
+    <row r="313" spans="1:9" ht="15.6">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -18701,7 +18701,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.75">
+    <row r="314" spans="1:9" ht="15.6">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -18724,7 +18724,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.75">
+    <row r="315" spans="1:9" ht="15.6">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -18747,7 +18747,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.75">
+    <row r="316" spans="1:9" ht="15.6">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -18772,7 +18772,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.75">
+    <row r="317" spans="1:9" ht="15.6">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -18791,7 +18791,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.75">
+    <row r="318" spans="1:9" ht="15.6">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -18816,7 +18816,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.75">
+    <row r="319" spans="1:9" ht="15.6">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18839,7 +18839,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.75">
+    <row r="320" spans="1:9" ht="15.6">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18858,7 +18858,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.75">
+    <row r="321" spans="1:9" ht="15.6">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18879,7 +18879,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.75">
+    <row r="322" spans="1:9" ht="15.6">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18900,7 +18900,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.75">
+    <row r="323" spans="1:9" ht="15.6">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18923,7 +18923,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.75">
+    <row r="324" spans="1:9" ht="15.6">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18942,7 +18942,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.75">
+    <row r="325" spans="1:9" ht="15.6">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18961,7 +18961,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.75">
+    <row r="326" spans="1:9" ht="15.6">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18986,7 +18986,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.75">
+    <row r="327" spans="1:9" ht="15.6">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -19343,7 +19343,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.75">
+    <row r="344" spans="1:16" ht="15.6">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -19706,7 +19706,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.75">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19834,14 +19834,14 @@
       <selection activeCell="L17" sqref="L17:N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
-    <col min="17" max="17" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
